--- a/PaperDataProcess/Fluorescence shelving of a superconducting circuit/temperature_list.xlsx
+++ b/PaperDataProcess/Fluorescence shelving of a superconducting circuit/temperature_list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepository\Qubit-data-process\PaperDataProcess\Fluorescence shelving of a superconducting circuit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SC Lab\GitHubRepositories\Qubit-data-process\PaperDataProcess\Fluorescence shelving of a superconducting circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB12D672-DC59-477C-B5D6-6BBFFCCFDB62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6336" yWindow="264" windowWidth="17280" windowHeight="10212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="270" windowWidth="17280" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>P0</t>
   </si>
@@ -56,14 +55,17 @@
   <si>
     <t>mean</t>
   </si>
+  <si>
+    <t>12.27</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,33 +118,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -161,16 +163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -200,8 +202,63 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4076700" y="2926080"/>
-          <a:ext cx="2865120" cy="3116580"/>
+          <a:off x="5791200" y="447675"/>
+          <a:ext cx="2865120" cy="3246120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8915400" y="257175"/>
+          <a:ext cx="2819400" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -485,19 +542,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -514,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1.07</v>
       </c>
@@ -536,7 +594,7 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.05</v>
       </c>
@@ -547,18 +605,18 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D15" si="0">6.626E-34*E3*1000000000/1.3806E-23/LN(B3/C3)*1000</f>
+        <f t="shared" ref="D3:D16" si="0">6.626E-34*E3*1000000000/1.3806E-23/LN(B3/C3)*1000</f>
         <v>57.617747157057998</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="1">1.1558</f>
+        <f t="shared" ref="E3:E14" si="1">1.1558</f>
         <v>1.1557999999999999</v>
       </c>
       <c r="H3">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.04</v>
       </c>
@@ -580,7 +638,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.01</v>
       </c>
@@ -602,7 +660,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>12.31</v>
       </c>
@@ -624,7 +682,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -646,7 +704,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>12.29</v>
       </c>
@@ -668,20 +726,20 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>12.25</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="7">
-        <v>0.72599999999999998</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C9" s="7">
         <f>1-B9</f>
-        <v>0.27400000000000002</v>
+        <v>0.21799999999999997</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>56.730106232010968</v>
+        <v>43.276032070713327</v>
       </c>
       <c r="E9">
         <v>1.1517999999999999</v>
@@ -689,176 +747,198 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>12.25</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="C10" s="7">
+        <f>1-B10</f>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>56.730106232010968</v>
+      </c>
+      <c r="E10">
+        <v>1.1517999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>12.16</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>0.69199999999999995</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>0.27600000000000002</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>60.34805556980551</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>1.1557999999999999</v>
-      </c>
-      <c r="H10">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>12.15</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>47.272705895715028</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
         <v>1.1557999999999999</v>
       </c>
       <c r="H11">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11.25</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="C12" s="7">
-        <f>1-B12</f>
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
-        <v>48.881749767503898</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12.15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>47.272705895715028</v>
       </c>
       <c r="E12">
-        <v>1.1517999999999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>11.25</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="C13" s="4">
-        <f>B13/3.095</f>
-        <v>0.23715670436187397</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>49.09862513393584</v>
-      </c>
-      <c r="E13">
         <f t="shared" si="1"/>
         <v>1.1557999999999999</v>
       </c>
-      <c r="H13">
-        <f>B13/25.07</f>
+      <c r="H12">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C13" s="7">
+        <f>1-B13</f>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>48.881749767503898</v>
+      </c>
+      <c r="E13">
+        <v>1.1517999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11.25</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="C14" s="4">
+        <f>B14/3.095</f>
+        <v>0.23715670436187397</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>49.09862513393584</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.1557999999999999</v>
+      </c>
+      <c r="H14">
+        <f>B14/25.07</f>
         <v>2.9278021539688871E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>11.23</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="7">
         <v>0.79300000000000004</v>
       </c>
-      <c r="C14" s="7">
-        <f>1-B14</f>
+      <c r="C15" s="7">
+        <f>1-B15</f>
         <v>0.20699999999999996</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>41.157677104469656</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>1.1517999999999999</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>11.23</v>
       </c>
-      <c r="B15" s="10">
-        <f>1-C15</f>
+      <c r="B16" s="10">
+        <f>1-C16</f>
         <v>0.77104707043278975</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C16" s="10">
         <f>1/(1+3.36771)</f>
         <v>0.22895292956721025</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>45.525907234813836</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>1.1517999999999999</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4">
-        <f>AVERAGE(B2:B15)</f>
-        <v>0.72250336217377065</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" ref="C16:D16" si="2">AVERAGE(C2:C15)</f>
-        <v>0.25900783099493452</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="B17" s="4">
+        <f>AVERAGE(B2:B16)</f>
+        <v>0.72646980469551925</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:D17" si="2">AVERAGE(C2:C16)</f>
+        <v>0.25627397559527221</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="2"/>
-        <v>54.794608001928303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+        <v>54.026702939847311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4">
-        <f>_xlfn.STDEV.P(B2:B15)</f>
-        <v>3.515279697198187E-2</v>
-      </c>
-      <c r="C17" s="4">
-        <f>_xlfn.STDEV.P(C2:C15)</f>
-        <v>2.3823690411294479E-2</v>
-      </c>
-      <c r="D17" s="5">
-        <f>_xlfn.STDEV.P(D2:D15)</f>
-        <v>6.9892590918670994</v>
+      <c r="B18" s="4">
+        <f>_xlfn.STDEV.P(B2:B16)</f>
+        <v>3.7062045102591368E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <f>_xlfn.STDEV.P(C2:C16)</f>
+        <v>2.5186620615054122E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f>_xlfn.STDEV.P(D2:D16)</f>
+        <v>7.3381596960140003</v>
       </c>
     </row>
   </sheetData>
